--- a/거래내역서.xlsx
+++ b/거래내역서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumes\source\repos\WNE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junhyeokpark/Downloads/WNE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1D5FF1-BBF0-4F6E-AE27-12D610D8134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C40D34-ED69-924B-BFD8-B8CC531DEA35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>NO</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -111,18 +111,6 @@
   </si>
   <si>
     <t>총 이용 금액</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>예금주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불 금액</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>환불계좌 및 은행</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -310,11 +298,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>요청
-사항</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>쉐프조리 서비스</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -383,15 +366,24 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>고객
+요청사항</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문
+횟수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+  <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_ &quot;원&quot;"/>
     <numFmt numFmtId="179" formatCode="&quot;₩&quot;\ #,##0\ &quot;원&quot;"/>
     <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -399,9 +391,8 @@
     <numFmt numFmtId="182" formatCode="#&quot;명&quot;"/>
     <numFmt numFmtId="183" formatCode="#,##0_ &quot;박&quot;"/>
     <numFmt numFmtId="184" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
-    <numFmt numFmtId="185" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,13 +593,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -765,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1230,32 +1214,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="hair">
         <color indexed="64"/>
       </right>
@@ -1320,7 +1278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1330,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,19 +1319,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1391,46 +1349,46 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,67 +1409,67 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="182" fontId="27" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,96 +1478,111 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="27" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="26" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="23" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="24" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="24" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="17" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="17" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="16" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="17" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="17" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="16" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1619,7 +1592,292 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="27" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1628,303 +1886,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="28" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="28" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="28" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,26 +1904,17 @@
     <xf numFmtId="181" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2351,47 +2303,47 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.8984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="7.3984375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="10" customWidth="1"/>
     <col min="13" max="13" width="15" style="2" customWidth="1"/>
-    <col min="14" max="14" width="1.59765625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="130"/>
+    <row r="1" spans="1:14" ht="10" customHeight="1"/>
+    <row r="2" spans="1:14" ht="48" customHeight="1">
+      <c r="B2" s="161" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="163"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2407,188 +2359,188 @@
       <c r="M3" s="15"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="103" t="s">
-        <v>31</v>
+    <row r="4" spans="1:14" ht="36.75" customHeight="1">
+      <c r="B4" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="184" t="s">
+        <v>28</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="131" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="132"/>
-    </row>
-    <row r="5" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="136" t="s">
-        <v>29</v>
+      <c r="I4" s="164" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="165"/>
+    </row>
+    <row r="5" spans="1:14" ht="25" customHeight="1">
+      <c r="B5" s="167" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="204"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="104"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="134"/>
-    </row>
-    <row r="6" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="104"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="143"/>
+    </row>
+    <row r="6" spans="1:14" ht="25" customHeight="1">
+      <c r="B6" s="168"/>
       <c r="C6" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="104"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="168"/>
       <c r="H6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="133" t="s">
+      <c r="I6" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="134"/>
-    </row>
-    <row r="7" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="143"/>
+    </row>
+    <row r="7" spans="1:14" ht="25" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="104"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="104"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="168"/>
       <c r="H7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="134"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="143"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="104"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="104"/>
+        <v>22</v>
+      </c>
+      <c r="D8" s="172"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="168"/>
       <c r="H8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="135" t="s">
+      <c r="I8" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
       <c r="L8" s="33" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" ht="25" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="143" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="104"/>
+      <c r="D9" s="176" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="176"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="99" t="s">
+      <c r="I9" s="181" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="182"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="25" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="148"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="145" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="147"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="180"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="120">
+      <c r="C11" s="192"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="194">
         <f>SUM(K44)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="122"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="196"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="12.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2604,65 +2556,65 @@
       <c r="M12" s="12"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="28" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="207" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="209"/>
+      <c r="B13" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="155"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="24" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="123" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
+      <c r="C14" s="157" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
       <c r="I14" s="69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L14" s="63" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M14" s="65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="38.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="67">
         <v>1</v>
       </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="194"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="90"/>
@@ -2670,17 +2622,17 @@
       <c r="M15" s="72"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="38.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="67">
         <v>2</v>
       </c>
-      <c r="C16" s="195"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="197"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="149"/>
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="90"/>
@@ -2688,7 +2640,7 @@
       <c r="M16" s="72"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="53"/>
       <c r="C17" s="54"/>
@@ -2704,232 +2656,232 @@
       <c r="M17" s="59"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="24" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="210" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="210"/>
+      <c r="C18" s="157" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="156" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="156"/>
       <c r="K18" s="49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L18" s="50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M18" s="51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="21" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="70">
         <v>1</v>
       </c>
-      <c r="C19" s="112" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="112"/>
+      <c r="C19" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="102"/>
       <c r="K19" s="73"/>
       <c r="L19" s="74"/>
       <c r="M19" s="75"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="21" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="40">
         <v>2</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="117"/>
+      <c r="J20" s="101"/>
       <c r="K20" s="76"/>
       <c r="L20" s="77"/>
       <c r="M20" s="78"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="21" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="40">
         <v>3</v>
       </c>
-      <c r="C21" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="117"/>
+      <c r="C21" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="101"/>
       <c r="K21" s="76"/>
       <c r="L21" s="77"/>
       <c r="M21" s="78"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="21" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="117"/>
+      <c r="C22" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="101"/>
       <c r="K22" s="76"/>
       <c r="L22" s="77"/>
       <c r="M22" s="78"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="21" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="40">
         <v>3</v>
       </c>
-      <c r="C23" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="117"/>
+      <c r="C23" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="101"/>
       <c r="K23" s="76"/>
       <c r="L23" s="77"/>
       <c r="M23" s="78"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="21" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="40">
         <v>3</v>
       </c>
-      <c r="C24" s="117" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="117"/>
+      <c r="C24" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="101"/>
       <c r="K24" s="76"/>
       <c r="L24" s="77"/>
       <c r="M24" s="79"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="21" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="40">
         <v>4</v>
       </c>
-      <c r="C25" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="112"/>
+      <c r="C25" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="102"/>
       <c r="K25" s="73"/>
       <c r="L25" s="91"/>
       <c r="M25" s="75"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="21" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="41">
         <v>5</v>
       </c>
-      <c r="C26" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="J26" s="116"/>
+      <c r="C26" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="103"/>
       <c r="K26" s="80"/>
       <c r="L26" s="92"/>
       <c r="M26" s="81"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="33.75" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="170" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="173">
+      <c r="B27" s="107" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110">
         <f>SUM(M15:M16,M19:M26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="174"/>
-      <c r="K27" s="174"/>
-      <c r="L27" s="174"/>
-      <c r="M27" s="175"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="28.5" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="25"/>
       <c r="C28" s="23"/>
@@ -2945,69 +2897,69 @@
       <c r="M28" s="28"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="28" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="169"/>
+      <c r="B29" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="24" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="161" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="127"/>
+      <c r="C30" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="159" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="160"/>
       <c r="K30" s="44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M30" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="21" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="40">
         <v>1</v>
       </c>
-      <c r="C31" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" s="157"/>
+      <c r="C31" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="131"/>
       <c r="K31" s="82"/>
       <c r="L31" s="82">
         <v>40000</v>
@@ -3018,23 +2970,23 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="21" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="40">
         <v>2</v>
       </c>
-      <c r="C32" s="117" t="s">
+      <c r="C32" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" s="157"/>
+      <c r="J32" s="131"/>
       <c r="K32" s="82"/>
       <c r="L32" s="82">
         <v>55000</v>
@@ -3045,23 +2997,23 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="21" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="40">
         <v>3</v>
       </c>
-      <c r="C33" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" s="157"/>
+      <c r="C33" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="131"/>
       <c r="K33" s="82"/>
       <c r="L33" s="82">
         <v>88000</v>
@@ -3072,23 +3024,23 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="21" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="40">
         <v>4</v>
       </c>
-      <c r="C34" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="156" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="157"/>
+      <c r="C34" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="131"/>
       <c r="K34" s="82"/>
       <c r="L34" s="82">
         <v>12000</v>
@@ -3099,23 +3051,23 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="21" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="41">
         <v>5</v>
       </c>
-      <c r="C35" s="183" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="158" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="159"/>
+      <c r="C35" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="132" t="s">
+        <v>43</v>
+      </c>
+      <c r="J35" s="133"/>
       <c r="K35" s="83"/>
       <c r="L35" s="83">
         <v>16500</v>
@@ -3126,46 +3078,46 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="24" customHeight="1">
       <c r="B36" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="161" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="162"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="160" t="s">
+      <c r="C36" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="134"/>
+      <c r="K36" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="160"/>
-      <c r="K36" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" s="52" t="s">
-        <v>51</v>
-      </c>
       <c r="M36" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="20.5" customHeight="1">
       <c r="B37" s="42">
         <v>3</v>
       </c>
-      <c r="C37" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
+      <c r="C37" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
       <c r="K37" s="84"/>
       <c r="L37" s="85">
         <v>40000</v>
@@ -3175,20 +3127,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="20.5" customHeight="1">
       <c r="B38" s="42">
         <v>2</v>
       </c>
-      <c r="C38" s="115" t="s">
+      <c r="C38" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
       <c r="K38" s="84"/>
       <c r="L38" s="85">
         <v>110000</v>
@@ -3198,22 +3150,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="20.5" customHeight="1">
       <c r="B39" s="42">
         <v>6</v>
       </c>
-      <c r="C39" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163" t="s">
+      <c r="C39" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="J39" s="163"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="129"/>
       <c r="K39" s="86"/>
       <c r="L39" s="87">
         <v>33000</v>
@@ -3223,22 +3175,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="20.5" customHeight="1">
       <c r="B40" s="42">
         <v>7</v>
       </c>
-      <c r="C40" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="115"/>
+      <c r="C40" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="125"/>
       <c r="K40" s="84"/>
       <c r="L40" s="85">
         <v>55000</v>
@@ -3248,18 +3200,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="20.5" customHeight="1">
       <c r="B41" s="42">
         <v>5</v>
       </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
       <c r="K41" s="88"/>
       <c r="L41" s="89"/>
       <c r="M41" s="31">
@@ -3267,28 +3219,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="33.75" customHeight="1">
       <c r="A42" s="9"/>
-      <c r="B42" s="184" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="187">
+      <c r="B42" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="122">
         <f>SUM(M31:M35,M37:M41)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="188"/>
-      <c r="K42" s="188"/>
-      <c r="L42" s="188"/>
-      <c r="M42" s="189"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="124"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="12.75" customHeight="1">
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -3302,237 +3254,198 @@
       <c r="L43" s="18"/>
       <c r="M43" s="20"/>
     </row>
-    <row r="44" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="113" t="s">
+    <row r="44" spans="1:14" ht="25" customHeight="1">
+      <c r="B44" s="191" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="114"/>
       <c r="D44" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="180"/>
+      <c r="E44" s="115"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="181" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="182"/>
-      <c r="I44" s="182"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="100">
+      <c r="G44" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="183">
         <f>SUM(M15:M16,M19:M26,M31:M35,M37:M41)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-    </row>
-    <row r="45" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="111" t="s">
+      <c r="L44" s="183"/>
+      <c r="M44" s="183"/>
+    </row>
+    <row r="45" spans="1:14" ht="25" customHeight="1">
+      <c r="B45" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106" t="s">
+      <c r="C45" s="185"/>
+      <c r="D45" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="107"/>
+      <c r="E45" s="186"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="182"/>
-      <c r="H45" s="182"/>
-      <c r="I45" s="182"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-    </row>
-    <row r="46" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="108" t="s">
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="183"/>
+    </row>
+    <row r="46" spans="1:14" ht="25" customHeight="1">
+      <c r="B46" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109" t="s">
+      <c r="C46" s="188"/>
+      <c r="D46" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="110"/>
+      <c r="E46" s="189"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="182"/>
-      <c r="H46" s="182"/>
-      <c r="I46" s="182"/>
-      <c r="J46" s="182"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
-    </row>
-    <row r="47" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="183"/>
+      <c r="L46" s="183"/>
+      <c r="M46" s="183"/>
+    </row>
+    <row r="47" spans="1:14" ht="25" customHeight="1">
+      <c r="B47" s="205" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="207"/>
+      <c r="D47" s="207"/>
+      <c r="E47" s="207"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="201"/>
-      <c r="I47" s="202"/>
-      <c r="J47" s="203"/>
-      <c r="K47" s="176">
+      <c r="G47" s="197" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="202"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="204"/>
+      <c r="K47" s="113">
         <f>SUM(I27)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="176"/>
-      <c r="M47" s="176"/>
-    </row>
-    <row r="48" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="180"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+    </row>
+    <row r="48" spans="1:14" ht="25" customHeight="1">
+      <c r="B48" s="205"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="207"/>
       <c r="F48" s="22"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="198"/>
-      <c r="I48" s="199"/>
-      <c r="J48" s="200"/>
-      <c r="K48" s="176"/>
-      <c r="L48" s="176"/>
-      <c r="M48" s="176"/>
-    </row>
-    <row r="49" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="111" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="107"/>
+      <c r="G48" s="198"/>
+      <c r="H48" s="199"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+    </row>
+    <row r="49" spans="2:13" ht="25" customHeight="1">
+      <c r="B49" s="205"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
       <c r="F49" s="22"/>
-      <c r="G49" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" s="190"/>
-      <c r="I49" s="191"/>
+      <c r="G49" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="95"/>
+      <c r="I49" s="96"/>
       <c r="J49" s="60"/>
-      <c r="K49" s="179">
+      <c r="K49" s="97">
         <f>K44-K47</f>
         <v>0</v>
       </c>
-      <c r="L49" s="179"/>
-      <c r="M49" s="179"/>
-    </row>
-    <row r="50" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="109"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="102"/>
+      <c r="L49" s="97"/>
+      <c r="M49" s="97"/>
+    </row>
+    <row r="50" spans="2:13" ht="25" customHeight="1">
+      <c r="B50" s="205" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="208"/>
+      <c r="D50" s="206"/>
+      <c r="E50" s="206"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="179"/>
-      <c r="L50" s="179"/>
-      <c r="M50" s="179"/>
-    </row>
-    <row r="51" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="164" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="164"/>
-      <c r="D51" s="166"/>
-      <c r="E51" s="166"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="97"/>
+      <c r="M50" s="97"/>
+    </row>
+    <row r="51" spans="2:13" ht="25" customHeight="1">
+      <c r="B51" s="205"/>
+      <c r="C51" s="206"/>
+      <c r="D51" s="206"/>
+      <c r="E51" s="206"/>
       <c r="F51" s="22"/>
-      <c r="G51" s="177" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="190"/>
-      <c r="I51" s="191"/>
+      <c r="G51" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="95"/>
+      <c r="I51" s="96"/>
       <c r="J51" s="60"/>
-      <c r="K51" s="179">
+      <c r="K51" s="97">
         <f>K44-K47-K49</f>
         <v>0</v>
       </c>
-      <c r="L51" s="179"/>
-      <c r="M51" s="179"/>
-    </row>
-    <row r="52" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
+      <c r="L51" s="97"/>
+      <c r="M51" s="97"/>
+    </row>
+    <row r="52" spans="2:13" ht="25" customHeight="1">
+      <c r="B52" s="205"/>
+      <c r="C52" s="206"/>
+      <c r="D52" s="206"/>
+      <c r="E52" s="206"/>
       <c r="F52" s="22"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="179"/>
-      <c r="L52" s="179"/>
-      <c r="M52" s="179"/>
-    </row>
-    <row r="53" spans="2:13" ht="9.9" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="97"/>
+    </row>
+    <row r="53" spans="2:13" ht="10" customHeight="1"/>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
+  <mergeCells count="97">
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="G47:G48"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:M52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="K44:M46"/>
+    <mergeCell ref="G4:G10"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:E52"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="K47:M48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="K49:M50"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:J46"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="I5:M5"/>
@@ -3545,35 +3458,64 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="I10:M10"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="I6:M6"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="K44:M46"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G4:G10"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="K47:M48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="K49:M50"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:J46"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:M52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C47:E49"/>
+    <mergeCell ref="C50:E52"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B27:H27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -3597,7 +3539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/거래내역서.xlsx
+++ b/거래내역서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junhyeokpark/Downloads/WNE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumes\source\repos\WNE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C40D34-ED69-924B-BFD8-B8CC531DEA35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED69A4-587C-457A-B735-AB1977D97B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (3)" sheetId="4" r:id="rId1"/>
@@ -382,17 +382,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0_ &quot;원&quot;"/>
-    <numFmt numFmtId="179" formatCode="&quot;₩&quot;\ #,##0\ &quot;원&quot;"/>
-    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="181" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="182" formatCode="#&quot;명&quot;"/>
-    <numFmt numFmtId="183" formatCode="#,##0_ &quot;박&quot;"/>
-    <numFmt numFmtId="184" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ &quot;원&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;₩&quot;\ #,##0\ &quot;원&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="181" formatCode="#&quot;명&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0_ &quot;박&quot;"/>
+    <numFmt numFmtId="183" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1278,7 +1278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1288,7 +1288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,19 +1319,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,7 +1349,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1367,28 +1367,28 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,13 +1421,13 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,13 +1436,13 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,16 +1457,16 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="182" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="16" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="24" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,13 +1478,13 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="14" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="14" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,7 +1493,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="26" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="26" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,7 +1559,7 @@
     <xf numFmtId="38" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1568,71 +1568,290 @@
     <xf numFmtId="38" fontId="17" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="27" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1655,265 +1874,43 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="35" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="27" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="35" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2302,48 +2299,48 @@
   </sheetPr>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.296875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="7.296875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" style="10" customWidth="1"/>
     <col min="13" max="13" width="15" style="2" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="1.69921875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="10" customHeight="1"/>
-    <row r="2" spans="1:14" ht="48" customHeight="1">
-      <c r="B2" s="161" t="s">
+    <row r="1" spans="1:14" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="163"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="135"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="14.25" customHeight="1">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2359,110 +2356,110 @@
       <c r="M3" s="15"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="36.75" customHeight="1">
-      <c r="B4" s="135" t="s">
+    <row r="4" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="184" t="s">
+      <c r="C4" s="157"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="119" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="164" t="s">
+      <c r="I4" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="165"/>
-    </row>
-    <row r="5" spans="1:14" ht="25" customHeight="1">
-      <c r="B5" s="167" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+    </row>
+    <row r="5" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="141" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="168"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="142" t="s">
+      <c r="I5" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="143"/>
-    </row>
-    <row r="6" spans="1:14" ht="25" customHeight="1">
-      <c r="B6" s="168"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="139"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="120"/>
       <c r="C6" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="168"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="142" t="s">
+      <c r="I6" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="143"/>
-    </row>
-    <row r="7" spans="1:14" ht="25" customHeight="1">
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="139"/>
+    </row>
+    <row r="7" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="168"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="168"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="143"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="25" customHeight="1">
+    <row r="8" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="168"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="172"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="168"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="166" t="s">
+      <c r="I8" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
       <c r="L8" s="33" t="s">
         <v>6</v>
       </c>
@@ -2471,76 +2468,76 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="25" customHeight="1">
+    <row r="9" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="174" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="176" t="s">
+      <c r="D9" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="176"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="168"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="181" t="s">
+      <c r="I9" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181" t="s">
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="182"/>
+      <c r="M9" s="117"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="25" customHeight="1">
+    <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="140" t="s">
+      <c r="B10" s="121"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="169"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="121"/>
       <c r="H10" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="178" t="s">
+      <c r="I10" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="180"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="152"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="33.75" customHeight="1">
+    <row r="11" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="192"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194">
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125">
         <f>SUM(K44)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
-      <c r="L11" s="195"/>
-      <c r="M11" s="196"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="127"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="12.75" customHeight="1">
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2556,37 +2553,37 @@
       <c r="M12" s="12"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="28" customHeight="1">
+    <row r="13" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="155"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="176"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1">
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="69" t="s">
         <v>59</v>
       </c>
@@ -2604,17 +2601,17 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="38.25" customHeight="1">
+    <row r="15" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="67">
         <v>1</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
       <c r="K15" s="90"/>
@@ -2622,17 +2619,17 @@
       <c r="M15" s="72"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="38.25" customHeight="1">
+    <row r="16" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="67">
         <v>2</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="170"/>
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="90"/>
@@ -2640,7 +2637,7 @@
       <c r="M16" s="72"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="53"/>
       <c r="C17" s="54"/>
@@ -2656,23 +2653,23 @@
       <c r="M17" s="59"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1">
+    <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="156" t="s">
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="156"/>
+      <c r="J18" s="177"/>
       <c r="K18" s="49" t="s">
         <v>55</v>
       </c>
@@ -2684,204 +2681,204 @@
       </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="21" customHeight="1">
+    <row r="19" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="70">
         <v>1</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102" t="s">
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="102"/>
+      <c r="J19" s="110"/>
       <c r="K19" s="73"/>
       <c r="L19" s="74"/>
       <c r="M19" s="75"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="21" customHeight="1">
+    <row r="20" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="40">
         <v>2</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101" t="s">
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="101"/>
+      <c r="J20" s="115"/>
       <c r="K20" s="76"/>
       <c r="L20" s="77"/>
       <c r="M20" s="78"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="21" customHeight="1">
+    <row r="21" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="40">
         <v>3</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="101"/>
+      <c r="J21" s="115"/>
       <c r="K21" s="76"/>
       <c r="L21" s="77"/>
       <c r="M21" s="78"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="21" customHeight="1">
+    <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="40">
         <v>3</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101" t="s">
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="101"/>
+      <c r="J22" s="115"/>
       <c r="K22" s="76"/>
       <c r="L22" s="77"/>
       <c r="M22" s="78"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" ht="21" customHeight="1">
+    <row r="23" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="40">
         <v>3</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101" t="s">
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="101"/>
+      <c r="J23" s="115"/>
       <c r="K23" s="76"/>
       <c r="L23" s="77"/>
       <c r="M23" s="78"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="21" customHeight="1">
+    <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="40">
         <v>3</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101" t="s">
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="101"/>
+      <c r="J24" s="115"/>
       <c r="K24" s="76"/>
       <c r="L24" s="77"/>
       <c r="M24" s="79"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" ht="21" customHeight="1">
+    <row r="25" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="40">
         <v>4</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102" t="s">
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="102"/>
+      <c r="J25" s="110"/>
       <c r="K25" s="73"/>
       <c r="L25" s="91"/>
       <c r="M25" s="75"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" ht="21" customHeight="1">
+    <row r="26" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9"/>
       <c r="B26" s="41">
         <v>5</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103" t="s">
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="103"/>
+      <c r="J26" s="114"/>
       <c r="K26" s="80"/>
       <c r="L26" s="92"/>
       <c r="M26" s="81"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" ht="33.75" customHeight="1">
+    <row r="27" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9"/>
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="110">
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="181">
         <f>SUM(M15:M16,M19:M26)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="112"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="183"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="28.5" customHeight="1">
+    <row r="28" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9"/>
       <c r="B28" s="25"/>
       <c r="C28" s="23"/>
@@ -2897,41 +2894,41 @@
       <c r="M28" s="28"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="28" customHeight="1">
+    <row r="29" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="201" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="106"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="202"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="202"/>
+      <c r="L29" s="202"/>
+      <c r="M29" s="203"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="24" customHeight="1">
+    <row r="30" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="9"/>
       <c r="B30" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="159" t="s">
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="160"/>
+      <c r="J30" s="132"/>
       <c r="K30" s="44" t="s">
         <v>55</v>
       </c>
@@ -2943,23 +2940,23 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" ht="21" customHeight="1">
+    <row r="31" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="9"/>
       <c r="B31" s="40">
         <v>1</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="130" t="s">
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="131"/>
+      <c r="J31" s="164"/>
       <c r="K31" s="82"/>
       <c r="L31" s="82">
         <v>40000</v>
@@ -2970,23 +2967,23 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" ht="21" customHeight="1">
+    <row r="32" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="9"/>
       <c r="B32" s="40">
         <v>2</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="130" t="s">
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="131"/>
+      <c r="J32" s="164"/>
       <c r="K32" s="82"/>
       <c r="L32" s="82">
         <v>55000</v>
@@ -2997,23 +2994,23 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" ht="21" customHeight="1">
+    <row r="33" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
       <c r="B33" s="40">
         <v>3</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="130" t="s">
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="131"/>
+      <c r="J33" s="164"/>
       <c r="K33" s="82"/>
       <c r="L33" s="82">
         <v>88000</v>
@@ -3024,23 +3021,23 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" ht="21" customHeight="1">
+    <row r="34" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9"/>
       <c r="B34" s="40">
         <v>4</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="130" t="s">
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="131"/>
+      <c r="J34" s="164"/>
       <c r="K34" s="82"/>
       <c r="L34" s="82">
         <v>12000</v>
@@ -3051,23 +3048,23 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" ht="21" customHeight="1">
+    <row r="35" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9"/>
       <c r="B35" s="41">
         <v>5</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="132" t="s">
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="133"/>
+      <c r="J35" s="154"/>
       <c r="K35" s="83"/>
       <c r="L35" s="83">
         <v>16500</v>
@@ -3078,22 +3075,22 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" ht="24" customHeight="1">
+    <row r="36" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="134" t="s">
+      <c r="D36" s="179"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="J36" s="134"/>
+      <c r="J36" s="155"/>
       <c r="K36" s="52" t="s">
         <v>56</v>
       </c>
@@ -3104,20 +3101,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="20.5" customHeight="1">
+    <row r="37" spans="1:14" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="42">
         <v>3</v>
       </c>
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
       <c r="K37" s="84"/>
       <c r="L37" s="85">
         <v>40000</v>
@@ -3127,20 +3124,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="20.5" customHeight="1">
+    <row r="38" spans="1:14" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="42">
         <v>2</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="125"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
       <c r="K38" s="84"/>
       <c r="L38" s="85">
         <v>110000</v>
@@ -3150,22 +3147,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="20.5" customHeight="1">
+    <row r="39" spans="1:14" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="42">
         <v>6</v>
       </c>
-      <c r="C39" s="129" t="s">
+      <c r="C39" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129" t="s">
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="180"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="129"/>
+      <c r="J39" s="180"/>
       <c r="K39" s="86"/>
       <c r="L39" s="87">
         <v>33000</v>
@@ -3175,22 +3172,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="20.5" customHeight="1">
+    <row r="40" spans="1:14" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="42">
         <v>7</v>
       </c>
-      <c r="C40" s="125" t="s">
+      <c r="C40" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125" t="s">
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="J40" s="125"/>
+      <c r="J40" s="113"/>
       <c r="K40" s="84"/>
       <c r="L40" s="85">
         <v>55000</v>
@@ -3200,18 +3197,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="20.5" customHeight="1">
+    <row r="41" spans="1:14" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="42">
         <v>5</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
       <c r="K41" s="88"/>
       <c r="L41" s="89"/>
       <c r="M41" s="31">
@@ -3219,28 +3216,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="33.75" customHeight="1">
+    <row r="42" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="9"/>
-      <c r="B42" s="119" t="s">
+      <c r="B42" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="122">
+      <c r="C42" s="193"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="195">
         <f>SUM(M31:M35,M37:M41)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="123"/>
-      <c r="K42" s="123"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="124"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="196"/>
+      <c r="L42" s="196"/>
+      <c r="M42" s="197"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" ht="12.75" customHeight="1">
+    <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -3254,254 +3251,171 @@
       <c r="L43" s="18"/>
       <c r="M43" s="20"/>
     </row>
-    <row r="44" spans="1:14" ht="25" customHeight="1">
-      <c r="B44" s="191" t="s">
+    <row r="44" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114" t="s">
+      <c r="C44" s="112"/>
+      <c r="D44" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="115"/>
+      <c r="E44" s="188"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="116" t="s">
+      <c r="G44" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="183">
+      <c r="H44" s="190"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="190"/>
+      <c r="K44" s="118">
         <f>SUM(M15:M16,M19:M26,M31:M35,M37:M41)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="183"/>
-      <c r="M44" s="183"/>
-    </row>
-    <row r="45" spans="1:14" ht="25" customHeight="1">
-      <c r="B45" s="190" t="s">
+      <c r="L44" s="118"/>
+      <c r="M44" s="118"/>
+    </row>
+    <row r="45" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="185"/>
-      <c r="D45" s="185" t="s">
+      <c r="C45" s="109"/>
+      <c r="D45" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="186"/>
+      <c r="E45" s="122"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="183"/>
-      <c r="L45" s="183"/>
-      <c r="M45" s="183"/>
-    </row>
-    <row r="46" spans="1:14" ht="25" customHeight="1">
-      <c r="B46" s="187" t="s">
+      <c r="G45" s="190"/>
+      <c r="H45" s="190"/>
+      <c r="I45" s="190"/>
+      <c r="J45" s="190"/>
+      <c r="K45" s="118"/>
+      <c r="L45" s="118"/>
+      <c r="M45" s="118"/>
+    </row>
+    <row r="46" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="188"/>
-      <c r="D46" s="188" t="s">
+      <c r="C46" s="106"/>
+      <c r="D46" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="189"/>
+      <c r="E46" s="107"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="183"/>
-      <c r="L46" s="183"/>
-      <c r="M46" s="183"/>
-    </row>
-    <row r="47" spans="1:14" ht="25" customHeight="1">
-      <c r="B47" s="205" t="s">
+      <c r="G46" s="190"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="190"/>
+      <c r="J46" s="190"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="118"/>
+    </row>
+    <row r="47" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="104" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="207"/>
       <c r="D47" s="207"/>
       <c r="E47" s="207"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="197" t="s">
+      <c r="G47" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="202"/>
-      <c r="I47" s="203"/>
-      <c r="J47" s="204"/>
-      <c r="K47" s="113">
+      <c r="H47" s="101"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="184">
         <f>SUM(I27)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-    </row>
-    <row r="48" spans="1:14" ht="25" customHeight="1">
-      <c r="B48" s="205"/>
+      <c r="L47" s="184"/>
+      <c r="M47" s="184"/>
+    </row>
+    <row r="48" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="104"/>
       <c r="C48" s="207"/>
       <c r="D48" s="207"/>
       <c r="E48" s="207"/>
       <c r="F48" s="22"/>
-      <c r="G48" s="198"/>
-      <c r="H48" s="199"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="201"/>
-      <c r="K48" s="113"/>
-      <c r="L48" s="113"/>
-      <c r="M48" s="113"/>
-    </row>
-    <row r="49" spans="2:13" ht="25" customHeight="1">
-      <c r="B49" s="205"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="184"/>
+      <c r="L48" s="184"/>
+      <c r="M48" s="184"/>
+    </row>
+    <row r="49" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="104"/>
       <c r="C49" s="207"/>
       <c r="D49" s="207"/>
       <c r="E49" s="207"/>
       <c r="F49" s="22"/>
-      <c r="G49" s="93" t="s">
+      <c r="G49" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="95"/>
-      <c r="I49" s="96"/>
+      <c r="H49" s="198"/>
+      <c r="I49" s="199"/>
       <c r="J49" s="60"/>
-      <c r="K49" s="97">
+      <c r="K49" s="187">
         <f>K44-K47</f>
         <v>0</v>
       </c>
-      <c r="L49" s="97"/>
-      <c r="M49" s="97"/>
-    </row>
-    <row r="50" spans="2:13" ht="25" customHeight="1">
-      <c r="B50" s="205" t="s">
+      <c r="L49" s="187"/>
+      <c r="M49" s="187"/>
+    </row>
+    <row r="50" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="208"/>
-      <c r="D50" s="206"/>
-      <c r="E50" s="206"/>
+      <c r="C50" s="200"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="200"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="97"/>
-      <c r="M50" s="97"/>
-    </row>
-    <row r="51" spans="2:13" ht="25" customHeight="1">
-      <c r="B51" s="205"/>
-      <c r="C51" s="206"/>
-      <c r="D51" s="206"/>
-      <c r="E51" s="206"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="187"/>
+      <c r="L50" s="187"/>
+      <c r="M50" s="187"/>
+    </row>
+    <row r="51" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="104"/>
+      <c r="C51" s="200"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="200"/>
       <c r="F51" s="22"/>
-      <c r="G51" s="93" t="s">
+      <c r="G51" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="95"/>
-      <c r="I51" s="96"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="199"/>
       <c r="J51" s="60"/>
-      <c r="K51" s="97">
+      <c r="K51" s="187">
         <f>K44-K47-K49</f>
         <v>0</v>
       </c>
-      <c r="L51" s="97"/>
-      <c r="M51" s="97"/>
-    </row>
-    <row r="52" spans="2:13" ht="25" customHeight="1">
-      <c r="B52" s="205"/>
-      <c r="C52" s="206"/>
-      <c r="D52" s="206"/>
-      <c r="E52" s="206"/>
+      <c r="L51" s="187"/>
+      <c r="M51" s="187"/>
+    </row>
+    <row r="52" spans="2:13" ht="25.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="104"/>
+      <c r="C52" s="200"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="200"/>
       <c r="F52" s="22"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
-      <c r="M52" s="97"/>
-    </row>
-    <row r="53" spans="2:13" ht="10" customHeight="1"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="187"/>
+      <c r="L52" s="187"/>
+      <c r="M52" s="187"/>
+    </row>
+    <row r="53" spans="2:13" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="K44:M46"/>
-    <mergeCell ref="G4:G10"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="K47:M48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="K49:M50"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:J46"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="I42:M42"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:M52"/>
     <mergeCell ref="H52:J52"/>
     <mergeCell ref="C22:H22"/>
@@ -3516,6 +3430,89 @@
     <mergeCell ref="C50:E52"/>
     <mergeCell ref="B29:M29"/>
     <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K47:M48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="K49:M50"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:J46"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="K44:M46"/>
+    <mergeCell ref="G4:G10"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:I51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -3539,7 +3536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
